--- a/biology/Zoologie/Bassaricyon/Bassaricyon.xlsx
+++ b/biology/Zoologie/Bassaricyon/Bassaricyon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les olingos (Bassaricyon) sont des mammifères d'Amérique du Sud de l'ordre des carnivores de la famille des procyonidés.
-Aussi appelés Lingos ou Kinkajou à face pâle, les olingos sont souvent confondu avec le kinkajou. La forte ressemblance de ces animaux avec les bassaris a inspiré le nom du genre lors de la description de Joel Asaph Allen à partir des restes d'un olingo commun[1].
+Aussi appelés Lingos ou Kinkajou à face pâle, les olingos sont souvent confondu avec le kinkajou. La forte ressemblance de ces animaux avec les bassaris a inspiré le nom du genre lors de la description de Joel Asaph Allen à partir des restes d'un olingo commun.
 </t>
         </is>
       </c>
@@ -512,22 +524,59 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nombre d'espèces valides diffère selon les autorités. Certains auteurs[2] estiment que des espèces comme Bassaricyon lasius et Bassaricyon pauli sont conspécifiques ou des sous-espèces de Bassaricyon gabbii[3].
-Liste des espèces
-Selon Catalogue of Life                                   (16 mai 2015)[4] et ITIS      (16 mai 2015)[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nombre d'espèces valides diffère selon les autorités. Certains auteurs estiment que des espèces comme Bassaricyon lasius et Bassaricyon pauli sont conspécifiques ou des sous-espèces de Bassaricyon gabbii.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bassaricyon</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bassaricyon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (16 mai 2015) et ITIS      (16 mai 2015) :
 Bassaricyon alleni Thomas, 1880 — l'Olingo d'Allen
 Bassaricyon gabbii J. A. Allen, 1876 — l'Olingo commun, olingo de Gabbi, l'espèce type, la mieux connue.
 Bassaricyon medius Thomas, 1909
 Bassaricyon neblina Helgen, Pinto, Kays, Helgen, Tsuchiya, Quinn, Wilson &amp; Maldonado, 2013 — l'Olinguito
-Selon Mammal Species of the World (version 3, 2005)  (16 mai 2015)[6] :
+Selon Mammal Species of the World (version 3, 2005)  (16 mai 2015) :
 Bassaricyon alleni Thomas, 1880
 Bassaricyon beddardi Pocock, 1921
 Bassaricyon gabbii J.A. Allen, 1876
 Bassaricyon lasius Harris, 1932
 Bassaricyon pauli Enders, 1936
-Selon Paleobiology Database                   (16 mai 2015)[7] :
+Selon Paleobiology Database                   (16 mai 2015) :
 Bassaricyon alleni
 Bassaricyon gabbii</t>
         </is>
